--- a/docs/cda-logical-model/ValueSet-CDAEntityNameUse.xlsx
+++ b/docs/cda-logical-model/ValueSet-CDAEntityNameUse.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-sd-202312-matchbox-patch</t>
+    <t>2.0.0-sd-202406-matchbox-patch</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T18:28:21+01:00</t>
+    <t>2024-06-19T17:47:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 International - Structured Documents (http://www.hl7.org/Special/committees/structure, structdog@lists.HL7.org)</t>
   </si>
   <si>
     <t>Description</t>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>SNDX</t>
+  </si>
+  <si>
+    <t>ASGN</t>
   </si>
   <si>
     <t>ABC</t>
@@ -394,7 +397,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -488,16 +491,22 @@
       <c r="A14" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="B14" t="s" s="2">
-        <v>38</v>
-      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
         <v>39</v>
       </c>
       <c r="B15" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
         <v>40</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
